--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F6A0D-21E5-4C06-9890-84BE5EBA7A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A65957-DED4-428E-A1F1-770E61B36DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="97">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,154 @@
   </si>
   <si>
     <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备质量管理战略的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(批准人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(负责产品生产)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备沟通管理战略的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(评审者)-独立于生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理团队结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立项目控制的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建/更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定项目计划的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善商业论证的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益评审计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细的商业论证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司/项目群管理层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总项目启动文件的职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -593,11 +741,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,36 +871,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,24 +928,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -736,6 +936,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1033,22 +1258,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="26" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -1224,25 +1449,25 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1273,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1329,8 +1554,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1350,19 +1575,19 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -1383,7 +1608,7 @@
       <c r="H20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1481,19 +1706,19 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -1514,7 +1739,7 @@
       <c r="H28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1545,7 +1770,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1576,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B588F-C3E7-47EA-8100-7068B897A0FE}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1590,22 +1815,22 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1635,7 +1860,7 @@
       <c r="K3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1669,7 +1894,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1693,233 +1918,839 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J10" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+    <row r="11" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+    <row r="12" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="47"/>
+      <c r="J43" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="43"/>
+    </row>
+    <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="31"/>
+      <c r="K57" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B55:K55"/>
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,32 +2760,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
-  <dimension ref="B3:J8"/>
+  <dimension ref="B3:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1962,103 +2795,121 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>59</v>
-      </c>
+    <row r="6" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="29"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,26 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A65957-DED4-428E-A1F1-770E61B36DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD80AC-01D8-4AD5-A5D4-774CABF7912E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目准备流程" sheetId="1" r:id="rId1"/>
     <sheet name="项目启动流程" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="阶段控制流程" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="138">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +420,170 @@
   </si>
   <si>
     <t>汇总项目启动文件的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用的产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-生产者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-批准人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-评审者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-生成者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A25 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权工作包的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-生产者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-评审者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-批准人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收已完成的工作包的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审阶段状态的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验教训记录单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报要点的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获并检查问题和风险的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例外报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报问题和风险职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取纠正性行动的职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +610,31 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -761,7 +956,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -774,7 +971,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -787,7 +986,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -797,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +1093,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,30 +1147,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,21 +1505,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="I2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="I2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -1457,17 +1703,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1575,16 +1821,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -1706,16 +1952,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -1803,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B588F-C3E7-47EA-8100-7068B897A0FE}">
   <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B49" sqref="B49:K49"/>
     </sheetView>
   </sheetViews>
@@ -1815,19 +2061,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -1920,17 +2166,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -2013,17 +2259,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2129,17 +2375,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -2216,16 +2462,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -2281,16 +2527,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -2328,16 +2574,16 @@
       <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="47" t="s">
+      <c r="H35" s="32" t="s">
         <v>71</v>
       </c>
       <c r="I35" s="24"/>
@@ -2352,16 +2598,16 @@
       <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="47" t="s">
+      <c r="H36" s="32" t="s">
         <v>71</v>
       </c>
       <c r="I36" s="24"/>
@@ -2390,17 +2636,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -2424,7 +2670,7 @@
       <c r="H41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="33" t="s">
         <v>84</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -2441,19 +2687,19 @@
       <c r="D42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="24" t="s">
         <v>81</v>
       </c>
@@ -2468,19 +2714,19 @@
       <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="47"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="24" t="s">
         <v>82</v>
       </c>
@@ -2560,18 +2806,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="43"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -2598,7 +2844,7 @@
       <c r="I50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="J50" s="33" t="s">
         <v>84</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -2618,19 +2864,19 @@
       <c r="E51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="H51" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="47"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="24" t="s">
         <v>91</v>
       </c>
@@ -2661,24 +2907,24 @@
         <v>71</v>
       </c>
       <c r="J52" s="31"/>
-      <c r="K52" s="51" t="s">
+      <c r="K52" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="46"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -2705,7 +2951,7 @@
       <c r="I56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J56" s="48" t="s">
+      <c r="J56" s="33" t="s">
         <v>84</v>
       </c>
       <c r="K56" s="5" t="s">
@@ -2736,7 +2982,7 @@
         <v>71</v>
       </c>
       <c r="J57" s="31"/>
-      <c r="K57" s="51" t="s">
+      <c r="K57" s="34" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2759,157 +3005,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B51B0-3FF9-4D30-9C80-D3A5D95B8A9D}">
+  <dimension ref="B2:L69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+    </row>
+    <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+    </row>
+    <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+    </row>
+    <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+    </row>
+    <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="66"/>
+    </row>
+    <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="52"/>
+      <c r="I57" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="52"/>
+      <c r="I58" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="59"/>
+      <c r="I59" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="70"/>
+    </row>
+    <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65">
+        <f>1067.07/150</f>
+        <v>7.1137999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B54:I54"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
-  <dimension ref="B3:K11"/>
+  <dimension ref="B3:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="4" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="N4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="I5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:K4"/>
+  <mergeCells count="2">
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD80AC-01D8-4AD5-A5D4-774CABF7912E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3ADD3-2B8C-428E-A789-F37DEEF4985C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="项目准备流程" sheetId="1" r:id="rId1"/>
-    <sheet name="项目启动流程" sheetId="3" r:id="rId2"/>
-    <sheet name="阶段控制流程" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="职责权限表" sheetId="5" r:id="rId1"/>
+    <sheet name="项目准备流程" sheetId="1" r:id="rId2"/>
+    <sheet name="项目启动流程" sheetId="3" r:id="rId3"/>
+    <sheet name="阶段控制流程" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="187">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +585,202 @@
   </si>
   <si>
     <t>采取纠正性行动的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司或项目群管理层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供公司或项目群质量管理体系细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供质量保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准项目产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准质量管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认项目产品验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供客户质量期望和验收标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准关键用户产品的产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供资源进行用户质量活动和产品批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供项目产品验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准产品开发所采用的质量方法技术和工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供资源进行供应商质量活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准关键专业产品的产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立客户质量预期和验收标准文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备质量管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备和维护产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保小组经理实施产品描述与工作包中商定的质量控制方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产与产品描述一致的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理相关产品的质量控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总质量记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向项目经理报告产品质量状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向项目经理提出之狼管理战略的建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助项目管理委员会和项目经理产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就合适的质量评审者/批准人向项目经理提出建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保项目管理委员会成员实施质量管理战略，即项目管理与质量步骤的正确执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为质量控制提供行政支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护质量登记单和质量记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助小组经理和成员运用项目质量流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应对策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供企业风险管理战略和风险管理流程(类似文件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责风险管理的所有方面，特别时确保项目风险管理战略的存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保于商业论证有关的风险被识别、评估和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要时，将风险上报到公司或项目群管理层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保于用户有关的风险被识别、评估和控制(例如对收益、运营使用和维护影响)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保与供应商有关的风险被识别、评估和控制(例如项目产品的生产)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定风险管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建并维护风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保在项目生命周期中，项目风险被识别、评估和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与风险的识别、评估和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审风险管理的执行以确保符合项目的风险管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助项目经理维护项目风险登记单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +837,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,7 +855,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -994,11 +1200,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1102,51 +1447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1187,6 +1487,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,17 +1553,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,6 +1884,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24014498-DE3D-4171-8EFC-5BDC06566D2C}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="61" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
+      <c r="B8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="75"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="75"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="75"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="75"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="75"/>
+      <c r="B29" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="75"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="75"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="74"/>
+      <c r="B36" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="75"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="75"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74"/>
+      <c r="B41" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="74"/>
+      <c r="B45" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -1505,21 +2311,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -1703,17 +2509,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1821,16 +2627,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -1952,16 +2758,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -2045,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B588F-C3E7-47EA-8100-7068B897A0FE}">
   <dimension ref="B1:L57"/>
   <sheetViews>
@@ -2061,19 +2867,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -2166,17 +2972,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -2259,17 +3065,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2375,17 +3181,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -2462,16 +3268,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -2527,16 +3333,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -2636,17 +3442,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -2806,18 +3612,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="46"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="61"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -2913,18 +3719,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="46"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="61"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -3004,11 +3810,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B51B0-3FF9-4D30-9C80-D3A5D95B8A9D}">
   <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -3020,949 +3826,949 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="57" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="42" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="57" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="42" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="57" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="57"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60" t="s">
+      <c r="K11" s="44"/>
+      <c r="L11" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="57" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="57" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="57" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="44"/>
+      <c r="F29" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60" t="s">
+      <c r="G29" s="44"/>
+      <c r="H29" s="45" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="57" t="s">
+      <c r="E34" s="37"/>
+      <c r="F34" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="57" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="57" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60" t="s">
+      <c r="E38" s="44"/>
+      <c r="F38" s="45" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="42" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G55" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="55" t="s">
+      <c r="I55" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H56" s="52" t="s">
+      <c r="H56" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52" t="s">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="57" t="s">
+      <c r="H57" s="37"/>
+      <c r="I57" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="57" t="s">
+      <c r="H58" s="37"/>
+      <c r="I58" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59" t="s">
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60" t="s">
+      <c r="H59" s="44"/>
+      <c r="I59" s="45" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="70"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="57" t="s">
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="57" t="s">
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="42" t="s">
         <v>123</v>
       </c>
       <c r="K65">
@@ -3971,70 +4777,70 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="57" t="s">
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="57" t="s">
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="57" t="s">
+      <c r="G68" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60" t="s">
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4055,12 +4861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
-  <dimension ref="B3:S12"/>
+  <dimension ref="B3:S18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:S11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4071,311 +4877,324 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="N4" s="68" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="N4" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="67"/>
     </row>
     <row r="5" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="R5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="57" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="57" t="s">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="57" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="57" t="s">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="57" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="57" t="s">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="57" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="57" t="s">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="59" t="s">
+      <c r="O11" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="60" t="s">
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3ADD3-2B8C-428E-A789-F37DEEF4985C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9F440-4A01-4E6B-9585-CD0203BB4ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="212">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +781,106 @@
   </si>
   <si>
     <t>协助项目经理维护项目风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定项目容许偏差、在项目任务书中记录容许偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测项目层次容许偏差将突破时，批准例外计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供公司或项目群管理层编制计划的标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个阶段设定容许偏差，并批准阶段计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测阶段层次的容许偏差将突破时，批准例外计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为阶段计划承诺商业资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保项目计划和阶段计划与用户观点保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为阶段计划承诺供应商资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保项目加护和阶段计划与供应商观点保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为阶段计划和阶段计划与供应商观点保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目计划和阶段计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定如何运用管理和技术阶段，设计阶段计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测工作包层次的容许偏差将突破时，指导执行纠正性行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为实施公司管理层、项目群管理层或项目管理委员会对例外报告的决定，准备例外计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备小组计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个工作包准备进度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督项目计划的变更，以判断是否对商业或项目商业论证的需求产生任何影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比批准的容许偏差，监督阶段和项目流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助编制项目计划、阶段计划和小组计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献专业技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与基线对比、保存和分发项目计划、阶段计划和小组计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +955,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1339,11 +1439,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1490,6 +1647,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1553,56 +1762,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1885,406 +2063,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24014498-DE3D-4171-8EFC-5BDC06566D2C}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="71" customWidth="1"/>
+    <col min="1" max="1" width="20" style="50" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="61" style="84" customWidth="1"/>
+    <col min="3" max="3" width="68.375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="54" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="86" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C7" s="58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B8" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C8" s="54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="83" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="82" t="s">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="73" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
+      <c r="B15" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C15" s="54" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="85" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="56" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="85" t="s">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B18" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C18" s="94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="83" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="83" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="83" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="83" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="82" t="s">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="90" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="86" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C26" s="93" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B27" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C27" s="54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="83" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="83" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="63"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="83" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="82" t="s">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="90" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="86" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="63"/>
+      <c r="B32" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C34" s="58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B35" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C35" s="54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="83" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="56" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="83" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="83" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="63"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="82" t="s">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="90" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="73" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="91"/>
+      <c r="B40" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="91"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="91"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="91"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C45" s="58" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="85" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="58" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="85" t="s">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="58" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="73" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B48" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C48" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="83" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="63"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="56" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="83" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="63"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="82" t="s">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="86" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="63"/>
+      <c r="B52" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C54" s="58" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="73" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B55" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C55" s="54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="83" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="63"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="56" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="83" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="63"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="82" t="s">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="90" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="86" t="s">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="64"/>
+      <c r="B61" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C61" s="58" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="73" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B62" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C62" s="54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="83" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="56" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="82" t="s">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="90" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="87" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="91"/>
+      <c r="B65" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="91"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="91"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="64"/>
+      <c r="B68" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C68" s="61" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B11:B16"/>
+  <mergeCells count="26">
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2311,21 +2674,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="I2" s="56" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="I2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -2509,17 +2872,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -2627,16 +2990,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -2758,16 +3121,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -2867,19 +3230,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -2972,17 +3335,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -3065,17 +3428,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -3181,17 +3544,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -3268,16 +3631,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -3333,16 +3696,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -3442,17 +3805,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="79"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -3612,18 +3975,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="79"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -3719,18 +4082,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="61"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="79"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -3826,19 +4189,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -4082,15 +4445,15 @@
       <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -4288,15 +4651,15 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
@@ -4365,13 +4728,13 @@
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -4469,13 +4832,13 @@
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
@@ -4513,12 +4876,12 @@
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
@@ -4592,16 +4955,16 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="70"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
@@ -4711,14 +5074,14 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
@@ -4877,27 +5240,27 @@
   <sheetData>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="N4" s="65" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85"/>
+      <c r="N4" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="67"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="85"/>
     </row>
     <row r="5" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -2,22 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9F440-4A01-4E6B-9585-CD0203BB4ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162D8FD-3A08-40E3-83FB-B91C9F817112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="职责权限表" sheetId="5" r:id="rId1"/>
     <sheet name="项目准备流程" sheetId="1" r:id="rId2"/>
     <sheet name="项目启动流程" sheetId="3" r:id="rId3"/>
     <sheet name="阶段控制流程" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="阶段边界管理流程" sheetId="6" r:id="rId5"/>
+    <sheet name="产品交付管理流程" sheetId="7" r:id="rId6"/>
+    <sheet name="项目收尾" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="290">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,18 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应对策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风险主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +872,330 @@
   </si>
   <si>
     <t>与基线对比、保存和分发项目计划、阶段计划和小组计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制下一阶段计划的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-生产者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-评审者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-批准人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新项目计划的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业论证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新商业论证职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段竣工报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验教训报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告阶段竣工的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续行动建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例外计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制例外计划的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-评审这</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收工作包的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行工作包的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付工作包的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司/项目群管理层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用的产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备按计划收尾的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品状态陈述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外工作估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备提前收尾的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续行动建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益评审计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建/更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交产品的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目竣工报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验教训记录单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目收尾通知草案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议项目收尾的职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1496,11 +1811,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1681,15 +2042,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,6 +2075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1762,27 +2144,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2063,9 +2475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24014498-DE3D-4171-8EFC-5BDC06566D2C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2088,10 +2501,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2099,49 +2512,49 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="55" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="61" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2149,148 +2562,148 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="90" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="63" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62" t="s">
-        <v>187</v>
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="55" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="55" t="s">
-        <v>194</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="56" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="65" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="56" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="56" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="56" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="90" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>195</v>
+      <c r="A24" s="67"/>
+      <c r="B24" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="95" t="s">
-        <v>196</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="66" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="93" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C27" s="54" t="s">
@@ -2298,63 +2711,63 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="90" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="62" t="s">
-        <v>187</v>
+      <c r="A32" s="67"/>
+      <c r="B32" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="54" t="s">
@@ -2362,98 +2775,98 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="56" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="90" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="63" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
-      <c r="B40" s="65" t="s">
-        <v>187</v>
+      <c r="A40" s="74"/>
+      <c r="B40" s="70" t="s">
+        <v>184</v>
       </c>
       <c r="C40" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="74"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="74"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="91"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="56" t="s">
+    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="74"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="55" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="91"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="55" t="s">
-        <v>203</v>
-      </c>
-    </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63" t="s">
-        <v>174</v>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -2461,56 +2874,56 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="56" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="90" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="63" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="62" t="s">
-        <v>204</v>
+      <c r="A52" s="67"/>
+      <c r="B52" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="54" t="s">
@@ -2518,56 +2931,56 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="66"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="56" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="90" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="91"/>
-      <c r="B59" s="62" t="s">
-        <v>187</v>
+      <c r="A59" s="74"/>
+      <c r="B59" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="64"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="69" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="54" t="s">
@@ -2575,53 +2988,71 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="90" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="63" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="91"/>
-      <c r="B65" s="62" t="s">
-        <v>187</v>
+      <c r="A65" s="74"/>
+      <c r="B65" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="91"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B4:B6"/>
@@ -2630,24 +3061,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,6 +3070,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2674,21 +3088,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="I2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -2872,17 +3286,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -2990,16 +3404,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -3121,16 +3535,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -3216,6 +3630,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B588F-C3E7-47EA-8100-7068B897A0FE}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
@@ -3230,19 +3645,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -3335,17 +3750,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -3428,17 +3843,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -3544,17 +3959,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -3631,16 +4046,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -3696,16 +4111,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -3805,17 +4220,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="79"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -3975,18 +4390,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="79"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -4082,18 +4497,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="79"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -4175,10 +4590,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B51B0-3FF9-4D30-9C80-D3A5D95B8A9D}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4189,19 +4605,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -4445,15 +4861,15 @@
       <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -4651,15 +5067,15 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
@@ -4728,13 +5144,13 @@
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -4832,13 +5248,13 @@
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
@@ -4876,12 +5292,12 @@
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="88"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
@@ -4955,16 +5371,16 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
@@ -5074,14 +5490,14 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="85"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="92"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
@@ -5119,7 +5535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="41" t="s">
         <v>115</v>
       </c>
@@ -5134,12 +5550,8 @@
       <c r="G65" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="K65">
-        <f>1067.07/150</f>
-        <v>7.1137999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="41" t="s">
         <v>122</v>
       </c>
@@ -5155,7 +5567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="41" t="s">
         <v>110</v>
       </c>
@@ -5171,7 +5583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="41" t="s">
         <v>113</v>
       </c>
@@ -5191,7 +5603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="43" t="s">
         <v>131</v>
       </c>
@@ -5225,344 +5637,2870 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
-  <dimension ref="B3:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD82375-2B49-417B-BDE1-CA600388F503}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="N4" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="85"/>
-    </row>
-    <row r="5" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
+    </row>
+    <row r="4" spans="2:12" s="57" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L4" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="H6" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="K6" s="37"/>
       <c r="L6" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="L7" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="K8" s="37"/>
       <c r="L8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="K9" s="37"/>
       <c r="L9" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="37"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="K10" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" s="57" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
-        <v>173</v>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+    </row>
+    <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="98"/>
+    </row>
+    <row r="26" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="98"/>
+    </row>
+    <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
+    </row>
+    <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J43" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J44" s="45"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="98"/>
+    </row>
+    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" s="100"/>
+      <c r="L49" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K50" s="100"/>
+      <c r="L50" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="L51" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J54" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K54" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N4:S4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B47:L47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1794A6B-AA8E-49E6-B964-27F7BC979B98}">
+  <dimension ref="B2:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
+    </row>
+    <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
+    </row>
+    <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="100"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+    </row>
+    <row r="25" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="112"/>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="104"/>
+    </row>
+    <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82946FE8-B523-4391-91AE-916D9644D28F}">
+  <dimension ref="B3:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+    </row>
+    <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="100"/>
+      <c r="G6" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="100"/>
+      <c r="J13" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="100"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+    </row>
+    <row r="19" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="100"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="100"/>
+      <c r="K22" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="100"/>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+    </row>
+    <row r="28" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+    </row>
+    <row r="33" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B32:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B3:V26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+    </row>
+    <row r="5" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="99"/>
+      <c r="L5" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="100"/>
+      <c r="L8" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="104"/>
+    </row>
+    <row r="16" spans="2:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="U16" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="V16" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="N17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="T17" s="37"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="M18" s="113"/>
+      <c r="N18" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="U18" s="100"/>
+      <c r="V18" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="U19" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="V19" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="R20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20" s="100"/>
+      <c r="V20" s="42"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="100"/>
+      <c r="L24" s="42"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="107"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="108"/>
+    </row>
+    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
     <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="N15:V15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162D8FD-3A08-40E3-83FB-B91C9F817112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F081D74-3969-4F04-A63A-360630EAD762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="职责权限表" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="334">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1196,6 +1196,182 @@
   </si>
   <si>
     <t>建议项目收尾的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供项目容许偏差，并将其记入项目任务书中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当项目层次容许偏差预测将被突破时，对例外计划作决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供阶段容许偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保指向结果的进展于商业视角保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当阶段层次容许偏差预测将突破时，对例外计划作决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果项目容许派奶茶预测将被突破，向公司或项目群管理层推荐项目的后续行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保指向结果的进展于用户视角保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保指向结果的进展于供应商视角保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权工作包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按阶段计划监督进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制要点报告、阶段竣工报告、经验教训报告和项目竣工报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当阶段层次容许偏差预测将被突破时，为项目管理委员会编制例外报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护项目的各种登记单和记录单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与项目经理就工作包达成一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把完成了的质量活动通知项目支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制检查点报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就工作包容许派奶茶的任何预测偏离通知项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就外部事件和项目进展验证商业论证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证项目计划的变更、看对业务需求或商业论证是否产生了任何影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更具预先约定的容许片产确认阶段和项目记住那还能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助各类报告的汇编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献专业工具知识(例如计划和控制工具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为问题报告和例外报告编号、记录、存放和分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助项目经理维护问题登记单和风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表项目经理维护质量登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供企业或项目群的变更控制、问题处置、配置管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定变更刊组织于变更预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定问题严重程度的分级标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定变更请求于不合格项的优先排序标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上报来的问题作决策，特别关注持续业务验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复项目经理的建议请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上报来的问题作决策，特别关注保护预期收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上报来的问题作决策，特备关注保证整套解决方案的一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理配置管理步骤，有条件时由项目支持来协助开展相关工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理围提和变更控制步骤，由条件时由项目支持来协助开展相关工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建和维护问题登记单，由条件时由项目支持来协助开展相关工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取纠正性行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对问题的检查和处理提供建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督配置管理、问题和变更控制步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护配置项记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建产品状态陈述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助项目经理维护问题登记单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,7 +1446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1735,27 +1911,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1766,7 +1924,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1781,87 +1976,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2030,146 +2155,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2187,14 +2189,122 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2476,10 +2586,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24014498-DE3D-4171-8EFC-5BDC06566D2C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2501,566 +2611,923 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="79" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="55" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="56" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="56" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="56" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="61" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="77"/>
+      <c r="B7" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="77"/>
+      <c r="B9" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B11" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C11" s="54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="56" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="63" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="56" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="56" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="55" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="69" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
+      <c r="B18" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C18" s="56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="56" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="55" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="56" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="77"/>
+      <c r="B21" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="77"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="77"/>
+      <c r="B26" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B30" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C30" s="54" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="56" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="56" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="56" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="77"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="56" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="77"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="63" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="69" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="77"/>
+      <c r="B36" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C36" s="56" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="66" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="77"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="56" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="59" t="s">
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="77"/>
+      <c r="B38" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C38" s="109" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="77"/>
+      <c r="B39" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="77"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="109" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
+      <c r="B41" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B42" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C42" s="54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="56" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="77"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="56" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="56" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="77"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="63" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="77"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="56" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="69" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="77"/>
+      <c r="B47" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C47" s="56" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="55" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="77"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="56" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="59" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="77"/>
+      <c r="B49" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="77"/>
+      <c r="B50" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="77"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B53" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C53" s="54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="56" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="77"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="56" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="56" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="77"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="77"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="63" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="77"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="70" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="77"/>
+      <c r="B58" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C58" s="56" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="74"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="56" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="77"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="56" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="56" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="77"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="56" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="77"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="55" t="s">
+    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="77"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="56" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="77"/>
+      <c r="B63" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="58" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="77"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="58" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="77"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="56" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="69" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="77"/>
+      <c r="B66" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="77"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="77"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="77"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="77"/>
+      <c r="B70" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="77"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="77"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="77"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="78"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B75" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C75" s="54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="56" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="77"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="56" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="56" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="77"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="63" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="77"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="56" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
-      <c r="B52" s="69" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="77"/>
+      <c r="B79" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C79" s="56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="55" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="77"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="59" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="77"/>
+      <c r="B81" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="69" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="77"/>
+      <c r="B82" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="77"/>
+      <c r="B83" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="77"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="78"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B87" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C87" s="54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="67"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="56" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="77"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="56" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="56" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="77"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="63" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="77"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="74"/>
-      <c r="B59" s="69" t="s">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="77"/>
+      <c r="B91" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C91" s="56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="55" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="77"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="56" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="59" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="77"/>
+      <c r="B93" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C93" s="56" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="69" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="77"/>
+      <c r="B94" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="77"/>
+      <c r="B95" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="77"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B98" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C98" s="54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="56" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="77"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="56" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="63" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="77"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
-      <c r="B65" s="69" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="77"/>
+      <c r="B101" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C101" s="56" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="56" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="77"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="56" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="55" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="77"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="56" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="60" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="77"/>
+      <c r="B104" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C104" s="56" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="77"/>
+      <c r="B105" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="56" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="77"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="77"/>
+      <c r="B109" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="77"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="77"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="56" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B52:B53"/>
+  <mergeCells count="36">
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A53:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B105:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,21 +3555,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="I2" s="81" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -3286,17 +3753,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -3404,16 +3871,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -3535,16 +4002,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -3645,19 +4112,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -3750,17 +4217,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -3843,17 +4310,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -3959,17 +4426,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -4046,16 +4513,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -4111,16 +4578,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -4220,17 +4687,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -4390,18 +4857,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="86"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="93"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -4497,18 +4964,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="86"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="93"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -4605,19 +5072,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="95"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -4861,15 +5328,15 @@
       <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -5067,15 +5534,15 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
@@ -5144,13 +5611,13 @@
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -5248,13 +5715,13 @@
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
@@ -5292,12 +5759,12 @@
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
@@ -5371,16 +5838,16 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="102"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
@@ -5490,14 +5957,14 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="92"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
@@ -5653,19 +6120,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="2:12" s="57" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -5873,18 +6340,18 @@
     <row r="13" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="46" t="s">
@@ -6070,16 +6537,16 @@
     </row>
     <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
@@ -6175,17 +6642,17 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="98"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
     </row>
     <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
@@ -6318,17 +6785,17 @@
     </row>
     <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="46" t="s">
@@ -6438,19 +6905,19 @@
     </row>
     <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="98"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="105"/>
     </row>
     <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="46" t="s">
@@ -6480,7 +6947,7 @@
       <c r="J48" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="99" t="s">
+      <c r="K48" s="61" t="s">
         <v>233</v>
       </c>
       <c r="L48" s="48" t="s">
@@ -6513,7 +6980,7 @@
       <c r="J49" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K49" s="100"/>
+      <c r="K49" s="62"/>
       <c r="L49" s="42" t="s">
         <v>238</v>
       </c>
@@ -6542,7 +7009,7 @@
       <c r="J50" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K50" s="100"/>
+      <c r="K50" s="62"/>
       <c r="L50" s="42" t="s">
         <v>218</v>
       </c>
@@ -6561,7 +7028,7 @@
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
-      <c r="K51" s="100" t="s">
+      <c r="K51" s="62" t="s">
         <v>215</v>
       </c>
       <c r="L51" s="42" t="s">
@@ -6582,7 +7049,7 @@
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
-      <c r="K52" s="100" t="s">
+      <c r="K52" s="62" t="s">
         <v>216</v>
       </c>
       <c r="L52" s="42" t="s">
@@ -6603,7 +7070,7 @@
       </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
-      <c r="K53" s="100" t="s">
+      <c r="K53" s="62" t="s">
         <v>216</v>
       </c>
       <c r="L53" s="42" t="s">
@@ -6628,7 +7095,7 @@
       <c r="J54" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="K54" s="101" t="s">
+      <c r="K54" s="63" t="s">
         <v>215</v>
       </c>
       <c r="L54" s="45" t="s">
@@ -6637,12 +7104,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B47:L47"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B47:L47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6653,7 +7120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1794A6B-AA8E-49E6-B964-27F7BC979B98}">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -6661,19 +7128,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -6879,16 +7346,16 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -6909,7 +7376,7 @@
       <c r="G17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H17" s="61" t="s">
         <v>233</v>
       </c>
       <c r="I17" s="48" t="s">
@@ -6935,7 +7402,7 @@
       <c r="G18" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="100"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -6953,7 +7420,7 @@
         <v>215</v>
       </c>
       <c r="G19" s="37"/>
-      <c r="H19" s="100"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -6971,7 +7438,7 @@
       <c r="G20" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="100" t="s">
+      <c r="H20" s="62" t="s">
         <v>215</v>
       </c>
       <c r="I20" s="42" t="s">
@@ -6993,7 +7460,7 @@
       <c r="G21" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="62" t="s">
         <v>216</v>
       </c>
       <c r="I21" s="42" t="s">
@@ -7002,18 +7469,18 @@
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
     </row>
     <row r="25" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
@@ -7184,59 +7651,59 @@
       <c r="K31" s="42"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="105" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="105" t="s">
+      <c r="H32" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="108"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="110" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="I33" s="111" t="s">
+      <c r="I33" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="J33" s="111" t="s">
+      <c r="J33" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="112"/>
+      <c r="K33" s="71"/>
     </row>
     <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="106" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="104"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
     </row>
     <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
@@ -7312,7 +7779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82946FE8-B523-4391-91AE-916D9644D28F}">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:I39"/>
     </sheetView>
   </sheetViews>
@@ -7320,14 +7787,14 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
@@ -7342,7 +7809,7 @@
       <c r="E5" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="73" t="s">
         <v>233</v>
       </c>
       <c r="G5" s="40" t="s">
@@ -7362,7 +7829,7 @@
       <c r="E6" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="42" t="s">
         <v>218</v>
       </c>
@@ -7380,7 +7847,7 @@
       <c r="E7" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="62" t="s">
         <v>215</v>
       </c>
       <c r="G7" s="42" t="s">
@@ -7389,17 +7856,17 @@
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
@@ -7423,7 +7890,7 @@
       <c r="H11" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="73" t="s">
         <v>233</v>
       </c>
       <c r="J11" s="40" t="s">
@@ -7444,7 +7911,7 @@
         <v>215</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="100"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="42" t="s">
         <v>220</v>
       </c>
@@ -7465,7 +7932,7 @@
       <c r="H13" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="42" t="s">
         <v>218</v>
       </c>
@@ -7486,7 +7953,7 @@
       <c r="H14" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="62" t="s">
         <v>215</v>
       </c>
       <c r="J14" s="42" t="s">
@@ -7515,23 +7982,23 @@
       <c r="H15" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
@@ -7558,7 +8025,7 @@
       <c r="I19" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="73" t="s">
         <v>233</v>
       </c>
       <c r="K19" s="40" t="s">
@@ -7588,7 +8055,7 @@
       <c r="I20" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -7606,7 +8073,7 @@
         <v>217</v>
       </c>
       <c r="I21" s="37"/>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="62" t="s">
         <v>215</v>
       </c>
       <c r="K21" s="42" t="s">
@@ -7638,7 +8105,7 @@
       <c r="I22" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="100"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="42" t="s">
         <v>224</v>
       </c>
@@ -7666,22 +8133,22 @@
       <c r="I23" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="100"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
     </row>
     <row r="28" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
@@ -7770,16 +8237,16 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="106" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -7952,19 +8419,19 @@
   <sheetData>
     <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
@@ -7994,7 +8461,7 @@
       <c r="J5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="99"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="48" t="s">
         <v>97</v>
       </c>
@@ -8023,7 +8490,7 @@
         <v>102</v>
       </c>
       <c r="J6" s="37"/>
-      <c r="K6" s="100"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="42" t="s">
         <v>95</v>
       </c>
@@ -8052,7 +8519,7 @@
         <v>102</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="100"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="42" t="s">
         <v>44</v>
       </c>
@@ -8077,7 +8544,7 @@
       <c r="J8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="100"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="42" t="s">
         <v>58</v>
       </c>
@@ -8100,7 +8567,7 @@
         <v>102</v>
       </c>
       <c r="J9" s="37"/>
-      <c r="K9" s="100"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="42" t="s">
         <v>52</v>
       </c>
@@ -8123,7 +8590,7 @@
         <v>102</v>
       </c>
       <c r="J10" s="37"/>
-      <c r="K10" s="100"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="42" t="s">
         <v>59</v>
       </c>
@@ -8148,7 +8615,7 @@
       <c r="J11" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="100"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8161,22 +8628,22 @@
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="101"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="45"/>
     </row>
     <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="104"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="108"/>
     </row>
     <row r="16" spans="2:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N16" s="38" t="s">
@@ -8200,7 +8667,7 @@
       <c r="T16" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="U16" s="114" t="s">
+      <c r="U16" s="73" t="s">
         <v>233</v>
       </c>
       <c r="V16" s="40" t="s">
@@ -8208,19 +8675,19 @@
       </c>
     </row>
     <row r="17" spans="2:22" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
       <c r="N17" s="41" t="s">
         <v>212</v>
       </c>
@@ -8234,7 +8701,7 @@
         <v>215</v>
       </c>
       <c r="T17" s="37"/>
-      <c r="U17" s="100"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="42" t="s">
         <v>220</v>
       </c>
@@ -8267,13 +8734,13 @@
       <c r="J18" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="K18" s="114" t="s">
+      <c r="K18" s="73" t="s">
         <v>233</v>
       </c>
       <c r="L18" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="M18" s="113"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="41" t="s">
         <v>269</v>
       </c>
@@ -8289,7 +8756,7 @@
       <c r="T18" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="U18" s="100"/>
+      <c r="U18" s="62"/>
       <c r="V18" s="42" t="s">
         <v>218</v>
       </c>
@@ -8310,7 +8777,7 @@
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
-      <c r="K19" s="100"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="42" t="s">
         <v>220</v>
       </c>
@@ -8329,7 +8796,7 @@
       <c r="T19" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="U19" s="100" t="s">
+      <c r="U19" s="62" t="s">
         <v>215</v>
       </c>
       <c r="V19" s="42" t="s">
@@ -8352,7 +8819,7 @@
       </c>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
-      <c r="K20" s="100"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="42" t="s">
         <v>221</v>
       </c>
@@ -8377,7 +8844,7 @@
       <c r="T20" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="U20" s="100"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="42"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
@@ -8396,7 +8863,7 @@
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
-      <c r="K21" s="100"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="42" t="s">
         <v>209</v>
       </c>
@@ -8417,7 +8884,7 @@
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
-      <c r="K22" s="100"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="42" t="s">
         <v>287</v>
       </c>
@@ -8438,7 +8905,7 @@
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="100"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="42" t="s">
         <v>288</v>
       </c>
@@ -8467,34 +8934,34 @@
       <c r="J24" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="100"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="42"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="107"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="108"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="112"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F081D74-3969-4F04-A63A-360630EAD762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA82343-F23D-46C9-B4E1-0ECA650201A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="职责权限表" sheetId="5" r:id="rId1"/>
-    <sheet name="项目准备流程" sheetId="1" r:id="rId2"/>
-    <sheet name="项目启动流程" sheetId="3" r:id="rId3"/>
-    <sheet name="阶段控制流程" sheetId="4" r:id="rId4"/>
-    <sheet name="阶段边界管理流程" sheetId="6" r:id="rId5"/>
-    <sheet name="产品交付管理流程" sheetId="7" r:id="rId6"/>
-    <sheet name="项目收尾" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
+    <sheet name="产品描述概要" sheetId="9" r:id="rId1"/>
+    <sheet name="职责权限表" sheetId="5" r:id="rId2"/>
+    <sheet name="项目准备流程" sheetId="1" r:id="rId3"/>
+    <sheet name="项目启动流程" sheetId="3" r:id="rId4"/>
+    <sheet name="阶段控制流程" sheetId="4" r:id="rId5"/>
+    <sheet name="阶段边界管理流程" sheetId="6" r:id="rId6"/>
+    <sheet name="产品交付管理流程" sheetId="7" r:id="rId7"/>
+    <sheet name="项目收尾" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="377">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1372,6 +1373,1428 @@
   </si>
   <si>
     <t>协助项目经理维护问题登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组成</t>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式和表现形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包是有关一个或多个产品的信息集合，由项目经理汇总并用以把项目工作或交付产品的职责正式交付给小组经理或小组成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*日期
+*授权的小组经理或个人
+*工作包描述
+*技术、流程和步骤
+*开发界面
+*运营和维护界面
+*配置管理要求
+*联合协议
+*容许偏差
+*限制
+*报告安排
+*问题解决和问题上报
+*摘要或索引(阶段计划摘要、产品描述)
+*批准方法
+工作包中应记录：工作包的初始授权和作为完成工作包的返还及验收。这可以包括工作评价乃至绩效评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*现存的客户和供应商的商业协议
+*质量管理战略
+*配置管理战略
+*阶段计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文件
+*项目经理和小组经理的口头谈话
+*项目管理工具中的条目
+若某工作由项目经理直接领导下的团队来完成，则工作包可能是项口头指示——尽管把其记录在案有很多正当理由，例如避免误解并未绩效评估提供了联系。若某工作由合同规定的某供应商来完成，并且项目经理属于客户组织，则需要由一个符合合同约定标准的正式书面指示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*需要的工作包经过清晰定义并得到了所分配资源的理解
+*每个需要的产品由相应的产品描述，并由清晰确认可接收的质量标准
+*产品描述与其他工作包文件相匹配
+*工作标准得到了认同
+*定义的标准与其他应用于类似项目的标准相一致
+*所有必要的界面接口已进行了定义
+*报告安排中提出问题和风险的预先措施
+*项目经理与工作包接收者就“将要完成什么”达成了共识
+*对限制达成了共识，包括工作量、成本和目标
+*日期和工作量与当前管理阶段的阶段计划中所显示的相一致
+*确定了报告安排
+*定义了参与质量活动的独立性要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险登记单提供了一份项目相关风险的记录，包括各风险的状态和历史。它用来捕获和维护项目相关所有威胁和机会的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险标识符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：记入风险登记单的每一个风险都有唯一的检索号。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险作者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：提出风险的人
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*登记日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：识别出该风险的日期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：按项目给定的分类法规定的风险类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险描述：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">原因、事件(威胁或机会)和后果(描述影响)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*概率、影响与预期价值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对内在价值(应对行动前)和剩余价值(应对行动后)作估算会很有帮助。应按项目给定分级标准记录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*临近度：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这通常是陈述风险的预测发生事件据当前有多近(例如即刻发生、在阶段内发生、在项目期间发生、项目结束后发生)。临近度应按项目给定分级标准记录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险应对类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+——对威胁：规避、降低、转移、接收、共享
+——对机会：强化、利用、拒绝、共享
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险应对：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">指处置风险的行动，这些行动应归属于给定的应对类别。注意对某个风险可以使用不止一个风险应对。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险状态:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">通常用风险是活跃的还是关闭的来描述
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险负责人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">负责管理该风险的人(每个风险只能由一个风险负责人)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险执行人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：实施风险应对行动的人们。这与风险负责人可以是同一个人，也可以不是</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险登记单的组成、格式和表现形式在风险管理战略里规定
+*一旦某个新风险被识别出来，分概念登记单就生成相关记录项
+*项目任务书本身可能会含有一个或多个风险
+*很多环节会发现新风险，例如创建项目概述文件、设计和任命项目管理团队、建立项目控制和开发项目计划时，签发工作包时，评审工作包或阶段状态时
+*日志/问题登记单——向项目经理提出的问题以及日志或问题登记单捕获的问题，实际上经常时风险，单药经过进一步检查之后才会认定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文件、电子表格或数据库
+*独立登记单或在进展评审纪要中提出
+*项目管理工作中的条目
+*综合项目登记单的一部分，该登记单包括了所有的风险、行动、决策、假设、我呢提和经验教训等内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*状态显示了是否采取了行动的
+*对风险做了唯一标识，包括它们与哪个产品有关的信息
+*风险登记单的访问权限时受控的，并保存在安全的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理战略</t>
+  </si>
+  <si>
+    <t>风险管理战略描述所要应用的特定的风险管理技术和标准，以及实现有效的风险管理步骤的各相关职责。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*项目概述文件
+*商业论证
+*公司或项目群管理的风险管理指南、战略或方针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*导言：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈述目标、对象和范围，识别由谁来负责本战略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*风险管理步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关于将要使用的风险管理步骤的描述。任何与公司或项目群管理标准不同的地方都应标注出来，并附上理由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>识别-&gt;评估-&gt;计划-&gt;实施-&gt;沟通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*工具与技术：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对索要使用的风险管理系统、工具的索引提示，以及对在风险管理步骤的每一步所鼓励使用的技术的索引提示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*记录：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对风险登记单的组成、格式以及项目所用其他风险记录单的定义</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*报告:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对将要创建的风险管理报告的描述，包括他们的目的、时间和接收者。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*风险管理活动的时间:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说明什么时间要采取正式的风险管理活动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*角色与职责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:定义风险管理活动的角色与职责</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*分级标准:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义估算概率和影响的分级标准，确保成本和时间的分级标准与项目的成本和时间框架相一致。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*临近度：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有关如何评估风险事件临近度的指南。临近度反映的是风险将在某些特定时间发生，其后果的严重程度将依发生时间的不同而不同。典型的临近度分类是：即刻发生、在阶段内发生、在项目期间发生、项目结束后发生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*风险类别：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所使用的风险分类定义。他们可能来自风险分解结构或提示单。如果某个类别连一个风险记录都没有，则风险识别可能还没有做到位。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*风险应对类别：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所使用风险用对类别的定义，他们的状况取决于风险是察觉到的威胁还是机会。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*早期预警指标：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所使用的项目关键点跟踪指标定义，它们的状况取决于风险是察觉到的威胁还是机会。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*风险容许偏差：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义风险阈值水平，一旦超出就要把风险上报(例如，项目层次的风险容许偏差可以设定未一旦发生就会导致业务丧失。)风险容许偏差应定义冻死或项目群管理层以及项目管理委员会的风险期望。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*风险预算：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述是否要建立风险预算，以及如何建立了将怎样使用。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*单独文件，或者项目启动文件的一部分
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*职责清晰，且为客户和供应商理解
+*风险管理步骤表述清楚，且为所有相关方理解
+*分级标准、期望价值和六年进度的定义清晰明了
+*所选定的分级标准适合要求的控制水平
+*对风险报告的要求做了详尽定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.基线类：管理产品是指那些能够定义项目各个方面的，并且一旦获得批准，就必须遵循变更控制的管理产品：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                A1.  收益评审计划
+                A2:  商业论证
+                A4:  沟通管理战略
+                A6:  配置管理战略
+                A16 计划(涵盖项目、阶段和可选择性的小组计划)
+                A17: 产品描述
+                A19: 项目概述文件 
+                A20: 项目启动文件
+                A21: 项目产品描述
+                A22: 质量管理战略
+                A24: 风险管理战略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.纪录类：管理产品时维持项目进展信息的动态管理产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                A5:   配置项记录
+                A7:   日志
+                A12: 问题登记单
+                A14: 经验教训记录单
+                A23: 质量登记单
+                A25: 风险登记单
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.报告类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理产品时指提供特定时间点项目某方面状况的管理产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                A3:  检查点报告
+                A8:  项目竣工报告
+                A9:   阶段竣工报告
+                A10: 例外报告
+                A11: 要点报告
+                A13: 问题报告
+                A15: 经验教训报告
+                A18: 产品状态陈述</t>
+    </r>
+  </si>
+  <si>
+    <t>管理产品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益评审计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*收益评审计划所涵盖的按写将测量的收益范围
+*谁对预期收益负责
+*如何测量预期收益的实现程度，这些收益合适可以度量
+*执行评审工作需要那些资源
+*将用来计算改进提高的测量方法设为基线
+*项目产品绩效是怎样评审的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*商业论证
+*项目产品描述(特别是验收标准)
+*项目群收益实现计划(项目是项目群的一部分)
+*公司绩效监督职能，如果存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文件、带脑子表格或演示幻灯片
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*涵盖商业论证中提到的所有收益
+*收益是可测量的并且已记录了测量基线
+*描述测量收益所需的适当时间，以及所需时间的理由
+*确认进行测量所需的技术或人员
+*与预期收益价值相比，进行收益评审所花费的工作量和成本是现实可行的
+*应该考虑是否应该测量和评审负收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益评审计划用来定义怎样以及合适测量高级用户所预期的项目收益实现情况。这个计划再项目启动流程中想项目管理报告，再每个阶段边界进行更新，在项目收尾流程中定义任何必须的必需的项目后收益评审。
+该计划需涵盖各项活动，以便发现预期的产品收益是否能实现，以及产品再运营使用中表现如何？每项预期收益必须按照其实现程度进行评估，并且需要额外时间来评估剩余收益。项目产品的使用也许会带来预料之外的副作用，有利或不利的。需要投入时间和工作量来分析确认这些副作用为什么没有事先预料到。
+如果项目是某项目群的一部分，收益评审计划也可能包含再项目群收益实现计划中并再项目群层次执行。项目后收益评审计划由公司或项目均管理层维护并执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业论证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业论证用于记录进行项目的合理性。该合理性基于估算成本(开发、实施以及运行维护中不断递增的成本)与预期收益的比较以及相关的风险来验证的。
+概要商业论证在项目准备流程中开发并子啊项目启动流程中进行完善。项目知道流程中包括商业论证的批准和确认
+商业论证在阶段控制流程中被用来评估问题和风险的影响。商业论证的评审和更新的每个管理阶段结束时通过姐u但边界管理流程来完成，在项目结束时通过项目收尾流程来完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*内容概要：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>突出商业论证的关键点，应该包括重要收益和投资回报</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*理由：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义进行项目的理由并解释项目如何能推动公司战略和目标的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*可选商业方案：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就基本的可选商业方案：“什么也不做，做最少的或作一些”进行分析并给出推荐理由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*预期收益:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对于项目开展之前存在的收益情况的、项目将交付的收益，用于一种可测量的属于来表达。收益应该时定性的和定量的。它们应该和公司或项目群收益相一致。对于每项收益以及累计收益都应该，成本和负收益。负收益需要进行价值评价并结合到投资评估中。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*预期负收益:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由一位或多为利益相关方意识到的负面成果。负收益实际上时某项活动的后果，就定义而言，该活动具有某种不确定是否会实际发生的风险。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*时间:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目执行(可依项目加护概况)以及收益实现的时间。该信息在随后的编制计划(项目计划、姐u但计划和收益评审计划)中对时间决策有帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*成本:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目成本的概况(源于项目计划)，持续的运营和维护成本以及它们的资金使用协议。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*投资评估:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对项目成本以及持续增加的运营和维护成本所带来的累计收益和负收益的比较。投资评估分析可能使用例如现金流量表、投资收益率(ROI)、净现值、内部收益率和回报等技术。投资评估的目标在于能够将项目作为一项投资来定义的其价值。投资评估应该强调如何为项目融资。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*主要风险:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对项目关键风险以及其可能的影响的概述，还包括对如果风险发生时应具有的应对计划的概述。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*项目任务书和项目概述文件——理由
+*项目计划——成本和时间
+*高级用户——预期收益
+*项目主管——投资价值
+*风险登记单
+*问题登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文件、电子表格或演示幻灯片
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*项目理由必须和公司或项目群战略一致
+*项目计划和商业论证必须一致
+*收益应该被明确识别和证明合理性
+*收益时如何实现的应该时清晰的
+*成功的成果的定义应该时清晰的
+*应该明确更好的可选商业方案是什么以及为什么
+*如果需要外部采购，应该明确更好采购方案是什么以及为什么
+*应该明确如何获得所需要的资金
+*商业论证包括财务和非财务的标准
+*商业论证与组织汇集标准相符
+*对项目所面临的主要风险和个可能的建议反映措施，进行清晰的说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点报告按照工作包定义的频度报告工作包状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查点日期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*报告期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查点报告涵盖的报告期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*跟进措施：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来自以前的报告，例如已完成行动项或显著问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*本报告期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在班报告期内小组正在开发的产品；在本报告期内i奥祖完成的产品；在本报告期内已执行的质量管理活动；是被的经验教训</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*下一个报告期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在下已报告期内小组正在开发的产品；在下一报告期内小组计划完成的产品；为下一个报告期内计划的质量管理活动。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*工作包容许偏差状况：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与期容许偏差相比，工作包执行的绩效如何</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*问题和风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新与工作包相关联的问题和风险</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*工作包
+*小组计划和实际情况
+*以前的检查点报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*向项目经理的口头报告
+*在进展评审会上讲演讲报告
+*向项目经理发出的文件或电子邮件
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*按照项目经理要求的频度进行准备
+*对阶段和工作包的进展评估几倍和频度正确
+*信息是即使的、有用的、客观的和准确的
+*报告涵盖了报告期内工作包中的每个产品
+*包括对 以前报告中为解决问题的更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +2802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +2860,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1446,7 +2878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1982,11 +3414,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2197,6 +3653,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,15 +3686,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2296,14 +3779,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2584,11 +4079,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ABC7D7-2295-4F40-B9EE-1803A627DF1D}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="78" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="50.875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="79" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="79" customWidth="1"/>
+    <col min="7" max="7" width="25.875" style="79" customWidth="1"/>
+    <col min="8" max="8" width="9" style="80"/>
+    <col min="9" max="16384" width="9" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="120" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+    </row>
+    <row r="3" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="123">
+        <v>1</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="123">
+        <v>2</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="123"/>
+      <c r="B5" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="80">
+        <v>24</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="80">
+        <v>25</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="80">
+        <v>26</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="121"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="121"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="121"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="121"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="121"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="121"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="121"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="121"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="121"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="121"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="121"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="121"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="121"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="121"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="121"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="121"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="121"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="121"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="121"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="121"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="121"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="121"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="121"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="121"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="121"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="121"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="121"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="121"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="121"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="121"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="121"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="121"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="121"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="121"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="121"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="121"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="121"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="121"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="121"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="121"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="121"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="121"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="121"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="121"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="121"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="121"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="121"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="121"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="121"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="121"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24014498-DE3D-4171-8EFC-5BDC06566D2C}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2611,10 +4776,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2622,15 +4787,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="56" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2638,21 +4803,21 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="56" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="56" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="58" t="s">
         <v>171</v>
       </c>
@@ -2661,7 +4826,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="60" t="s">
         <v>316</v>
       </c>
@@ -2670,8 +4835,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -2679,17 +4844,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="55" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -2697,22 +4862,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="56" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="56" t="s">
@@ -2720,29 +4885,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="56" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="56" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="56" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="90" t="s">
         <v>171</v>
       </c>
       <c r="C18" s="56" t="s">
@@ -2750,22 +4915,22 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="56" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="56" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
-      <c r="B21" s="81" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="87" t="s">
         <v>316</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -2773,36 +4938,36 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="56" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="56" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="56" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="56" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="81" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -2810,31 +4975,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="56" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="56" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="55" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="54" t="s">
@@ -2842,43 +5007,43 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="77"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="56" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="77"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="56" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="56" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="56" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="77"/>
-      <c r="B36" s="80" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -2886,51 +5051,51 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="77"/>
-      <c r="B37" s="80"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="56" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="76" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="81" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="76" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="77"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="109" t="s">
+      <c r="A40" s="85"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="76" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="77" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="54" t="s">
@@ -2938,36 +5103,36 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="77"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="77"/>
-      <c r="B45" s="80"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="77"/>
-      <c r="B46" s="80"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="77"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="56" t="s">
@@ -2975,14 +5140,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="77"/>
-      <c r="B48" s="80"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="56" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="77"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="58" t="s">
         <v>171</v>
       </c>
@@ -2991,7 +5156,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="77"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="58" t="s">
         <v>316</v>
       </c>
@@ -3000,14 +5165,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="77"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="58"/>
       <c r="C51" s="56" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="59" t="s">
         <v>292</v>
       </c>
@@ -3016,10 +5181,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -3027,36 +5192,36 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="77"/>
-      <c r="B54" s="80"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="80"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="56" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="77"/>
-      <c r="B56" s="80"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="80"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="56" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="77"/>
-      <c r="B58" s="80" t="s">
+      <c r="A58" s="85"/>
+      <c r="B58" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C58" s="56" t="s">
@@ -3064,36 +5229,36 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="56" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="80"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="56" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="80"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="56" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="77"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="56" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="77"/>
-      <c r="B63" s="80" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="90" t="s">
         <v>171</v>
       </c>
       <c r="C63" s="56" t="s">
@@ -3101,22 +5266,22 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="77"/>
-      <c r="B64" s="80"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="56" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="77"/>
-      <c r="B65" s="80"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="56" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="77"/>
-      <c r="B66" s="81" t="s">
+      <c r="A66" s="85"/>
+      <c r="B66" s="87" t="s">
         <v>316</v>
       </c>
       <c r="C66" s="56" t="s">
@@ -3124,29 +5289,29 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="77"/>
-      <c r="B67" s="77"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="56" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="77"/>
-      <c r="B68" s="77"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="56" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="77"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="77"/>
-      <c r="B70" s="81" t="s">
+      <c r="A70" s="85"/>
+      <c r="B70" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -3154,38 +5319,38 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="77"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="56" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="77"/>
-      <c r="B72" s="77"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="77"/>
-      <c r="B73" s="77"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
       <c r="C73" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
       <c r="C74" s="55" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C75" s="54" t="s">
@@ -3193,29 +5358,29 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="77"/>
-      <c r="B76" s="80"/>
+      <c r="A76" s="85"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="56" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="77"/>
-      <c r="B77" s="80"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="77"/>
-      <c r="B78" s="80"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="56" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="77"/>
-      <c r="B79" s="80" t="s">
+      <c r="A79" s="85"/>
+      <c r="B79" s="90" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -3223,14 +5388,14 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="77"/>
-      <c r="B80" s="80"/>
+      <c r="A80" s="85"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="77"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="58" t="s">
         <v>171</v>
       </c>
@@ -3239,7 +5404,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="77"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="60" t="s">
         <v>316</v>
       </c>
@@ -3248,8 +5413,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="77"/>
-      <c r="B83" s="81" t="s">
+      <c r="A83" s="85"/>
+      <c r="B83" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C83" s="56" t="s">
@@ -3257,31 +5422,31 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="77"/>
-      <c r="B84" s="77"/>
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="56" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="77"/>
-      <c r="B85" s="77"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="56" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
-      <c r="B86" s="78"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="86"/>
       <c r="C86" s="55" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C87" s="54" t="s">
@@ -3289,29 +5454,29 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="77"/>
-      <c r="B88" s="80"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="77"/>
-      <c r="B89" s="80"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="56" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="77"/>
-      <c r="B90" s="80"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="56" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="77"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="85"/>
+      <c r="B91" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C91" s="56" t="s">
@@ -3319,14 +5484,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="77"/>
-      <c r="B92" s="80"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="56" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="77"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="58" t="s">
         <v>171</v>
       </c>
@@ -3335,7 +5500,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="77"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="60" t="s">
         <v>316</v>
       </c>
@@ -3344,8 +5509,8 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="77"/>
-      <c r="B95" s="81" t="s">
+      <c r="A95" s="85"/>
+      <c r="B95" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C95" s="56" t="s">
@@ -3353,24 +5518,24 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="77"/>
-      <c r="B96" s="77"/>
+      <c r="A96" s="85"/>
+      <c r="B96" s="85"/>
       <c r="C96" s="56" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="78"/>
-      <c r="B97" s="78"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="86"/>
       <c r="C97" s="55" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="54" t="s">
@@ -3378,22 +5543,22 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="77"/>
-      <c r="B99" s="80"/>
+      <c r="A99" s="85"/>
+      <c r="B99" s="90"/>
       <c r="C99" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="77"/>
-      <c r="B100" s="80"/>
+      <c r="A100" s="85"/>
+      <c r="B100" s="90"/>
       <c r="C100" s="56" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="77"/>
-      <c r="B101" s="80" t="s">
+      <c r="A101" s="85"/>
+      <c r="B101" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C101" s="56" t="s">
@@ -3401,21 +5566,21 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="77"/>
-      <c r="B102" s="80"/>
+      <c r="A102" s="85"/>
+      <c r="B102" s="90"/>
       <c r="C102" s="56" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="77"/>
-      <c r="B103" s="80"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="56" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="77"/>
+      <c r="A104" s="85"/>
       <c r="B104" s="58" t="s">
         <v>171</v>
       </c>
@@ -3424,8 +5589,8 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="77"/>
-      <c r="B105" s="81" t="s">
+      <c r="A105" s="85"/>
+      <c r="B105" s="87" t="s">
         <v>316</v>
       </c>
       <c r="C105" s="56" t="s">
@@ -3433,29 +5598,29 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="77"/>
-      <c r="B106" s="77"/>
+      <c r="A106" s="85"/>
+      <c r="B106" s="85"/>
       <c r="C106" s="56" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="77"/>
-      <c r="B107" s="77"/>
+      <c r="A107" s="85"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="56" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="77"/>
-      <c r="B108" s="111"/>
+      <c r="A108" s="85"/>
+      <c r="B108" s="88"/>
       <c r="C108" s="56" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="77"/>
-      <c r="B109" s="81" t="s">
+      <c r="A109" s="85"/>
+      <c r="B109" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C109" s="56" t="s">
@@ -3463,51 +5628,49 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="77"/>
-      <c r="B110" s="77"/>
+      <c r="A110" s="85"/>
+      <c r="B110" s="85"/>
       <c r="C110" s="56" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="77"/>
-      <c r="B111" s="77"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="56" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="77"/>
-      <c r="B112" s="77"/>
+      <c r="A112" s="85"/>
+      <c r="B112" s="85"/>
       <c r="C112" s="56" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="86"/>
       <c r="C113" s="55" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A29"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="A53:A74"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A53:A74"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B18:B20"/>
@@ -3515,12 +5678,8 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B30:B35"/>
     <mergeCell ref="A75:A86"/>
     <mergeCell ref="A87:A97"/>
     <mergeCell ref="A98:A113"/>
@@ -3528,6 +5687,12 @@
     <mergeCell ref="B95:B97"/>
     <mergeCell ref="B83:B86"/>
     <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B79:B80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,12 +5700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:J16"/>
     </sheetView>
   </sheetViews>
@@ -3555,21 +5720,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="I2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -3753,17 +5918,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -3871,16 +6036,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -4002,16 +6167,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -4095,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B588F-C3E7-47EA-8100-7068B897A0FE}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:L57"/>
@@ -4112,19 +6277,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -4217,17 +6382,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -4310,17 +6475,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -4426,17 +6591,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -4513,16 +6678,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -4578,16 +6743,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -4687,17 +6852,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -4857,18 +7022,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="93"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="102"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -4964,18 +7129,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="93"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="102"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -5055,7 +7220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B51B0-3FF9-4D30-9C80-D3A5D95B8A9D}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L69"/>
@@ -5072,19 +7237,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -5328,15 +7493,15 @@
       <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -5534,15 +7699,15 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
@@ -5611,13 +7776,13 @@
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -5715,13 +7880,13 @@
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
@@ -5759,12 +7924,12 @@
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="111"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
@@ -5838,16 +8003,16 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="102"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
@@ -5957,14 +8122,14 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="97" t="s">
+      <c r="B62" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="99"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="108"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
@@ -6103,7 +8268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD82375-2B49-417B-BDE1-CA600388F503}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:L54"/>
@@ -6120,19 +8285,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
     </row>
     <row r="4" spans="2:12" s="57" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -6340,18 +8505,18 @@
     <row r="13" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="46" t="s">
@@ -6537,16 +8702,16 @@
     </row>
     <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
@@ -6642,17 +8807,17 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
     </row>
     <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
@@ -6785,17 +8950,17 @@
     </row>
     <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="114"/>
     </row>
     <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="46" t="s">
@@ -6905,19 +9070,19 @@
     </row>
     <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="105"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="114"/>
     </row>
     <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="46" t="s">
@@ -7116,7 +9281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1794A6B-AA8E-49E6-B964-27F7BC979B98}">
   <dimension ref="B2:L40"/>
   <sheetViews>
@@ -7128,19 +9293,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -7346,16 +9511,16 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="112" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -7469,18 +9634,18 @@
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="117"/>
     </row>
     <row r="25" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
@@ -7696,14 +9861,14 @@
     </row>
     <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="108"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="117"/>
     </row>
     <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
@@ -7775,7 +9940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82946FE8-B523-4391-91AE-916D9644D28F}">
   <dimension ref="B3:K39"/>
   <sheetViews>
@@ -7787,14 +9952,14 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
@@ -7856,17 +10021,17 @@
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
@@ -7987,18 +10152,18 @@
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="117"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
@@ -8138,17 +10303,17 @@
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
     </row>
     <row r="28" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
@@ -8237,16 +10402,16 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="117"/>
     </row>
     <row r="33" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -8401,7 +10566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089CD277-2614-4E64-BDCB-3FBA314F38EE}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:V26"/>
@@ -8419,19 +10584,19 @@
   <sheetData>
     <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
@@ -8633,17 +10798,17 @@
     </row>
     <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="106" t="s">
+      <c r="N15" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="108"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="117"/>
     </row>
     <row r="16" spans="2:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N16" s="38" t="s">
@@ -8675,19 +10840,19 @@
       </c>
     </row>
     <row r="17" spans="2:22" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="108"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="117"/>
       <c r="N17" s="41" t="s">
         <v>212</v>
       </c>

--- a/项目职责表.xlsx
+++ b/项目职责表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目管理\P2\prince2_node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA82343-F23D-46C9-B4E1-0ECA650201A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010B957-6FBB-4609-956F-E782129B1376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="2520" windowWidth="8145" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品描述概要" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="394">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2795,6 +2795,999 @@
 *信息是即使的、有用的、客观的和准确的
 *报告涵盖了报告期内工作包中的每个产品
 *包括对 以前报告中为解决问题的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>沟通管理战略包括像项目你内部和外部各方进行沟通的方式和频度的描述。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它通过建立一个可控双向信息流来促进利益相关方的联系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*导言：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈述目的、目标和范围，并确认谁来负责该战略</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*沟通步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对任何可能用到的沟通方法的描述。任何与公司或项目群管理层所订标准的差异的产生差异的理由应该被突出强调</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*工具和技术:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为沟通流程的每个步骤建议任何讲使用的沟通工具，和可能使用的技术。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:定义需要什么样的沟通记录，以及它们保存再哪里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*报告:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述沟通流程中将会产生的各种报告，包括它们的目的、时间以及接受方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*沟通活动的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:陈述何时进行正式沟通包括合适对沟通方法进行绩效审计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*角色和职责:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述了谁对沟通流程的各个方面负责，包括任何参与沟通的公司或项目群管理层角色。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*利益相关方分析
+       ——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利益相关方确认(可能包括责任方员工、用户论坛、内部审计公司或项目群质量保证、竞争者等)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ——当前关系
+       ——期望关系
+       ——界面接口
+       ——关键信息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*各利益相关方需要的信息:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       ——项目需提供的必要信息
+       ——需向项目提供的必要信息
+       ——信息提供方和接受方
+       ——沟通频度
+       ——沟通方式
+       ——沟通格式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*公司沟通政策
+*项目群信息管理战略
+*项目启动文件的其他部分(特别是项目管理团队结构、风险管理战略、质量管理战略和配置管理战略)
+*专题研讨会/利益相关方的非正式讨论
+*利益相关方分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*独立产品或项目启动文件的一部分
+*文件、电子表或心智图
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*已确认所有的利益相关方并对其沟通要求进行咨询
+*所有的利益相关方对沟通内容、频度和方法达成一致
+*已经考虑了沟通的统一标准
+*用于执行沟通所需要的时间、投入和资源已经再阶段计划中进行了配置
+*沟通格式和频度对于项目的重要性和复杂程度来说是合适的
+*如果项目是项目群一部分，再沟通管理战略中已经明确定义了沟通路线，以及项目和项目群见的报告结构
+*再合适的情况下，沟通战略充分利用公司沟通设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供有关历史、状态、版本和每个配置项变体、以及配置项间重要关联细节等信息的记录
+项目的配置项记录集合，通常称为配置库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">配置项记录的组成再项目配置管理战略中定义
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*项目标识符：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一项唯一索引</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置项标识符：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一项唯一索引</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*当前版本号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>典型的是已字母-数字组合表示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置项名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置项的描述(对产品而言，它出现再产品分解结构中)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*最后状况的变化日期
+*负责人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品移交后拥有产品所有权的人或团体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*地点：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置项保存地点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*副本持有人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谁当前拥有该产品？</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置项类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品组件、单一产品、组合产品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置项属性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在配置管理战略中作了定义。在产生一个产品状态陈述时，用来对产品的子集进行具体化。例如产品创建的管理阶段、产品类型、产品目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*阶段：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>何时产品将被开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*用户们：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用该配置项的人或群体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在配置管理战略中定义，例如，等待开发、开发中、评审中、已批准或已移交</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*产品状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在产品描述中定义</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*变体
+*生产者：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">负责创建或获取配置项的人或团队
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*分配的日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：对生产者而言</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*来源：
+*与其他配置项的关系：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果本配置项变更，是否受影响，如果其他配置项变更，是否会影响本配置项</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*交叉索引：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题和风险、定义了要求、设计、建造、生产以及配置项验证的文档</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*配置管理战略
+*产品分解结构
+*阶段计划和工作包
+*质量登记单、问题登记单和风险登记单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文件、电子表格或数据库
+*项目管理工具中的条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*记录内容能够准确第放映出产品状态
+*所有记录集中保存在一个安全场所
+*版本号与实际产品相符
+*配置项记录显示产品版本历史
+*存在定义和更新配置项记录的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配置管理战略用来识别如何、由谁来控制和保护项目产品
+*项目产品是在哪里以及如何保存的
+*将实施什么样的存储和检索的安全措施
+*怎样确认产品以及各不同版本和变体
+*如何控制产品变更
+*配置管理的职责
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*导言：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈述目的、目标和范围并确认谁来负责该战略</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置管理步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对可能用到的配置管理步骤描述。任何与公司或项目群管理层所订标准的差异和产生差异的理由应该突出强调。步骤应该包括各项活动，例如计划、取人、控制、状态陈述以及验证和审计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*问题和变更控制步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对可能使用问题和变更控制步骤的描述。任何与公司或项目群管理层所定标准的差异和产生差异的理由应该突出强调。步骤应该包括各项活动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*工具和技术：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为配置管理步骤的每一步提供将使用的配置管理体系、使用的工具和可能使用的技术</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*记录：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义问题登记单和配置项记录的格式和组成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*报告：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述将会产生的报告格式和组成(问题报告、产品状态陈述)，它们的目的、时间以及所选择的接受方。这应该包括对不走本身绩效的评审。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*配置管理及问题和变更控制活动的时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈述了合适开展正式活动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*角色和职责：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述了配置管理步骤的各个方面由谁负责，包括任何参与项目产品配置管理的公司或项目群管理层角色。描述了变更管理组织和变更预算是否需要建立</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*对有限排序和严重程度的分级：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对变更请求和不合格项处理的优先级划分，以及对股那里活动级别的判定，并可在问题的严重程度方面进行决策</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*客户质量期望
+*公司配置管理体系
+*项目群质量管理战略和信息管理战略
+*用户的质量管理体系
+*供应商的质量管理体系
+*项目产品和环境的特别需求
+*项目管理团队结构
+*专题研讨会和非正式他理论
+*
+*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3677,7 +4670,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3686,16 +4706,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3778,27 +4792,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4082,9 +5075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ABC7D7-2295-4F40-B9EE-1803A627DF1D}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4119,7 +5112,7 @@
       <c r="F1" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="84" t="s">
         <v>339</v>
       </c>
       <c r="H1" s="80" t="s">
@@ -4127,21 +5120,21 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123">
+      <c r="A3" s="86">
         <v>1</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="87" t="s">
         <v>358</v>
       </c>
       <c r="C3" s="82" t="s">
@@ -4164,10 +5157,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="87" t="s">
         <v>365</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -4182,7 +5175,7 @@
       <c r="F4" s="82" t="s">
         <v>369</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="85" t="s">
         <v>370</v>
       </c>
       <c r="H4" s="80" t="s">
@@ -4190,8 +5183,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="123"/>
-      <c r="B5" s="124" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87" t="s">
         <v>371</v>
       </c>
       <c r="C5" s="82" t="s">
@@ -4206,7 +5199,7 @@
       <c r="F5" s="82" t="s">
         <v>375</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="85" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4229,7 +5222,7 @@
       <c r="F6" s="81" t="s">
         <v>354</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="84" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4252,7 +5245,7 @@
       <c r="F7" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="84" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4275,36 +5268,77 @@
       <c r="F8" s="82" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="85" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="121"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="121"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+    <row r="9" spans="1:8" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="80">
+        <v>4</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="80">
+        <v>5</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="80">
+        <v>6</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>393</v>
+      </c>
       <c r="F11" s="81"/>
-      <c r="G11" s="121"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="80"/>
@@ -4313,7 +5347,7 @@
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
-      <c r="G12" s="121"/>
+      <c r="G12" s="84"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="80"/>
@@ -4322,7 +5356,7 @@
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
-      <c r="G13" s="121"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="80"/>
@@ -4331,7 +5365,7 @@
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
-      <c r="G14" s="121"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="80"/>
@@ -4340,7 +5374,7 @@
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
-      <c r="G15" s="121"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="80"/>
@@ -4349,7 +5383,7 @@
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
-      <c r="G16" s="121"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="80"/>
@@ -4358,7 +5392,7 @@
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
-      <c r="G17" s="121"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="80"/>
@@ -4367,7 +5401,7 @@
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
-      <c r="G18" s="121"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="80"/>
@@ -4376,7 +5410,7 @@
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
-      <c r="G19" s="121"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="80"/>
@@ -4385,7 +5419,7 @@
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="121"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="80"/>
@@ -4394,7 +5428,7 @@
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
-      <c r="G21" s="121"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="80"/>
@@ -4403,7 +5437,7 @@
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
-      <c r="G22" s="121"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="80"/>
@@ -4412,7 +5446,7 @@
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
-      <c r="G23" s="121"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
@@ -4421,7 +5455,7 @@
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="121"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="80"/>
@@ -4430,7 +5464,7 @@
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
-      <c r="G25" s="121"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="80"/>
@@ -4439,7 +5473,7 @@
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="121"/>
+      <c r="G26" s="84"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="80"/>
@@ -4448,7 +5482,7 @@
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="80"/>
@@ -4457,7 +5491,7 @@
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
-      <c r="G28" s="121"/>
+      <c r="G28" s="84"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
@@ -4466,7 +5500,7 @@
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
       <c r="F29" s="81"/>
-      <c r="G29" s="121"/>
+      <c r="G29" s="84"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="80"/>
@@ -4475,7 +5509,7 @@
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
-      <c r="G30" s="121"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="80"/>
@@ -4484,7 +5518,7 @@
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
-      <c r="G31" s="121"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="80"/>
@@ -4493,7 +5527,7 @@
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
-      <c r="G32" s="121"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="80"/>
@@ -4502,7 +5536,7 @@
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
-      <c r="G33" s="121"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="80"/>
@@ -4511,7 +5545,7 @@
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
-      <c r="G34" s="121"/>
+      <c r="G34" s="84"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="80"/>
@@ -4520,7 +5554,7 @@
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
-      <c r="G35" s="121"/>
+      <c r="G35" s="84"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="80"/>
@@ -4529,7 +5563,7 @@
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
-      <c r="G36" s="121"/>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="80"/>
@@ -4538,7 +5572,7 @@
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
-      <c r="G37" s="121"/>
+      <c r="G37" s="84"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="80"/>
@@ -4547,7 +5581,7 @@
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
-      <c r="G38" s="121"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="80"/>
@@ -4556,7 +5590,7 @@
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
-      <c r="G39" s="121"/>
+      <c r="G39" s="84"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="80"/>
@@ -4565,7 +5599,7 @@
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
       <c r="F40" s="81"/>
-      <c r="G40" s="121"/>
+      <c r="G40" s="84"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="80"/>
@@ -4574,7 +5608,7 @@
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
-      <c r="G41" s="121"/>
+      <c r="G41" s="84"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="80"/>
@@ -4583,7 +5617,7 @@
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
       <c r="F42" s="81"/>
-      <c r="G42" s="121"/>
+      <c r="G42" s="84"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="80"/>
@@ -4592,7 +5626,7 @@
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
-      <c r="G43" s="121"/>
+      <c r="G43" s="84"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="80"/>
@@ -4601,7 +5635,7 @@
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
-      <c r="G44" s="121"/>
+      <c r="G44" s="84"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="80"/>
@@ -4610,7 +5644,7 @@
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
-      <c r="G45" s="121"/>
+      <c r="G45" s="84"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="80"/>
@@ -4619,7 +5653,7 @@
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
       <c r="F46" s="81"/>
-      <c r="G46" s="121"/>
+      <c r="G46" s="84"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="80"/>
@@ -4628,7 +5662,7 @@
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
-      <c r="G47" s="121"/>
+      <c r="G47" s="84"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="80"/>
@@ -4637,7 +5671,7 @@
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
-      <c r="G48" s="121"/>
+      <c r="G48" s="84"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="80"/>
@@ -4646,7 +5680,7 @@
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
-      <c r="G49" s="121"/>
+      <c r="G49" s="84"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="80"/>
@@ -4655,7 +5689,7 @@
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
       <c r="F50" s="81"/>
-      <c r="G50" s="121"/>
+      <c r="G50" s="84"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="80"/>
@@ -4664,7 +5698,7 @@
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
       <c r="F51" s="81"/>
-      <c r="G51" s="121"/>
+      <c r="G51" s="84"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="80"/>
@@ -4673,7 +5707,7 @@
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
-      <c r="G52" s="121"/>
+      <c r="G52" s="84"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="80"/>
@@ -4682,7 +5716,7 @@
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
-      <c r="G53" s="121"/>
+      <c r="G53" s="84"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="80"/>
@@ -4691,7 +5725,7 @@
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
       <c r="F54" s="81"/>
-      <c r="G54" s="121"/>
+      <c r="G54" s="84"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="80"/>
@@ -4700,7 +5734,7 @@
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
       <c r="F55" s="81"/>
-      <c r="G55" s="121"/>
+      <c r="G55" s="84"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="80"/>
@@ -4709,7 +5743,7 @@
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
       <c r="F56" s="81"/>
-      <c r="G56" s="121"/>
+      <c r="G56" s="84"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="80"/>
@@ -4718,7 +5752,7 @@
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
-      <c r="G57" s="121"/>
+      <c r="G57" s="84"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="80"/>
@@ -4727,7 +5761,7 @@
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
       <c r="F58" s="81"/>
-      <c r="G58" s="121"/>
+      <c r="G58" s="84"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="80"/>
@@ -4736,7 +5770,7 @@
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
-      <c r="G59" s="121"/>
+      <c r="G59" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4776,10 +5810,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -4787,15 +5821,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="56" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -4803,21 +5837,21 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="56" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="56" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="58" t="s">
         <v>171</v>
       </c>
@@ -4826,7 +5860,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="60" t="s">
         <v>316</v>
       </c>
@@ -4835,8 +5869,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -4844,17 +5878,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="55" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -4862,22 +5896,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="56" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="90" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="56" t="s">
@@ -4885,29 +5919,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="56" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="56" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="56" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="90" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="92" t="s">
         <v>171</v>
       </c>
       <c r="C18" s="56" t="s">
@@ -4915,22 +5949,22 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="56" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="56" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="93" t="s">
         <v>316</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -4938,36 +5972,36 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="56" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="56" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="56" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="56" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="85"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="94"/>
+      <c r="B26" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -4975,31 +6009,31 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="56" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="56" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="55" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="54" t="s">
@@ -5007,43 +6041,43 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="56" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="90"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="56" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="56" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="56" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="90" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="56" t="s">
@@ -5051,14 +6085,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="56" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="58" t="s">
         <v>171</v>
       </c>
@@ -5067,8 +6101,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="94"/>
+      <c r="B39" s="93" t="s">
         <v>316</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -5076,14 +6110,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="88"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="76" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="59" t="s">
         <v>292</v>
       </c>
@@ -5092,10 +6126,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C42" s="54" t="s">
@@ -5103,36 +6137,36 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="90"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="90"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="90"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="90" t="s">
+      <c r="A47" s="94"/>
+      <c r="B47" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="56" t="s">
@@ -5140,14 +6174,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="56" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="58" t="s">
         <v>171</v>
       </c>
@@ -5156,7 +6190,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="58" t="s">
         <v>316</v>
       </c>
@@ -5165,14 +6199,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="58"/>
       <c r="C51" s="56" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="59" t="s">
         <v>292</v>
       </c>
@@ -5181,10 +6215,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -5192,36 +6226,36 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="90"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="56" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="90"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="90"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="56" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="90" t="s">
+      <c r="A58" s="94"/>
+      <c r="B58" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C58" s="56" t="s">
@@ -5229,36 +6263,36 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="90"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="56" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="90"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="56" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="90"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="56" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="85"/>
-      <c r="B62" s="90"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="56" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="85"/>
-      <c r="B63" s="90" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="92" t="s">
         <v>171</v>
       </c>
       <c r="C63" s="56" t="s">
@@ -5266,22 +6300,22 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="85"/>
-      <c r="B64" s="90"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="56" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="85"/>
-      <c r="B65" s="90"/>
+      <c r="A65" s="94"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="56" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="85"/>
-      <c r="B66" s="87" t="s">
+      <c r="A66" s="94"/>
+      <c r="B66" s="93" t="s">
         <v>316</v>
       </c>
       <c r="C66" s="56" t="s">
@@ -5289,29 +6323,29 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="85"/>
-      <c r="B67" s="85"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="56" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="85"/>
-      <c r="B68" s="85"/>
+      <c r="A68" s="94"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="56" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="85"/>
-      <c r="B69" s="88"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="85"/>
-      <c r="B70" s="87" t="s">
+      <c r="A70" s="94"/>
+      <c r="B70" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -5319,38 +6353,38 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="85"/>
-      <c r="B71" s="85"/>
+      <c r="A71" s="94"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="56" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="85"/>
-      <c r="B72" s="85"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="56" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="85"/>
-      <c r="B73" s="85"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="56" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="55" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C75" s="54" t="s">
@@ -5358,29 +6392,29 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="85"/>
-      <c r="B76" s="90"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="56" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="85"/>
-      <c r="B77" s="90"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="85"/>
-      <c r="B78" s="90"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="56" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="85"/>
-      <c r="B79" s="90" t="s">
+      <c r="A79" s="94"/>
+      <c r="B79" s="92" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -5388,14 +6422,14 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="85"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="85"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="58" t="s">
         <v>171</v>
       </c>
@@ -5404,7 +6438,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="85"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="60" t="s">
         <v>316</v>
       </c>
@@ -5413,8 +6447,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="85"/>
-      <c r="B83" s="87" t="s">
+      <c r="A83" s="94"/>
+      <c r="B83" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C83" s="56" t="s">
@@ -5422,31 +6456,31 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="85"/>
-      <c r="B84" s="85"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="94"/>
       <c r="C84" s="56" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="85"/>
-      <c r="B85" s="85"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="56" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
-      <c r="B86" s="86"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="55" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="89" t="s">
+      <c r="B87" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C87" s="54" t="s">
@@ -5454,29 +6488,29 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="85"/>
-      <c r="B88" s="90"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="85"/>
-      <c r="B89" s="90"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="56" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="85"/>
-      <c r="B90" s="90"/>
+      <c r="A90" s="94"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="56" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="85"/>
-      <c r="B91" s="90" t="s">
+      <c r="A91" s="94"/>
+      <c r="B91" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C91" s="56" t="s">
@@ -5484,14 +6518,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="85"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="92"/>
       <c r="C92" s="56" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="85"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="58" t="s">
         <v>171</v>
       </c>
@@ -5500,7 +6534,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="85"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="60" t="s">
         <v>316</v>
       </c>
@@ -5509,8 +6543,8 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="85"/>
-      <c r="B95" s="87" t="s">
+      <c r="A95" s="94"/>
+      <c r="B95" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C95" s="56" t="s">
@@ -5518,24 +6552,24 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="85"/>
-      <c r="B96" s="85"/>
+      <c r="A96" s="94"/>
+      <c r="B96" s="94"/>
       <c r="C96" s="56" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
-      <c r="B97" s="86"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="95"/>
       <c r="C97" s="55" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="89" t="s">
+      <c r="B98" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="54" t="s">
@@ -5543,22 +6577,22 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="85"/>
-      <c r="B99" s="90"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="85"/>
-      <c r="B100" s="90"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="56" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="85"/>
-      <c r="B101" s="90" t="s">
+      <c r="A101" s="94"/>
+      <c r="B101" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C101" s="56" t="s">
@@ -5566,21 +6600,21 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="85"/>
-      <c r="B102" s="90"/>
+      <c r="A102" s="94"/>
+      <c r="B102" s="92"/>
       <c r="C102" s="56" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="85"/>
-      <c r="B103" s="90"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="92"/>
       <c r="C103" s="56" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="85"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="58" t="s">
         <v>171</v>
       </c>
@@ -5589,8 +6623,8 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="85"/>
-      <c r="B105" s="87" t="s">
+      <c r="A105" s="94"/>
+      <c r="B105" s="93" t="s">
         <v>316</v>
       </c>
       <c r="C105" s="56" t="s">
@@ -5598,29 +6632,29 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="85"/>
-      <c r="B106" s="85"/>
+      <c r="A106" s="94"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="56" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="85"/>
-      <c r="B107" s="85"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="94"/>
       <c r="C107" s="56" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="85"/>
-      <c r="B108" s="88"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="56" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="85"/>
-      <c r="B109" s="87" t="s">
+      <c r="A109" s="94"/>
+      <c r="B109" s="93" t="s">
         <v>292</v>
       </c>
       <c r="C109" s="56" t="s">
@@ -5628,56 +6662,35 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="85"/>
-      <c r="B110" s="85"/>
+      <c r="A110" s="94"/>
+      <c r="B110" s="94"/>
       <c r="C110" s="56" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="85"/>
-      <c r="B111" s="85"/>
+      <c r="A111" s="94"/>
+      <c r="B111" s="94"/>
       <c r="C111" s="56" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="85"/>
-      <c r="B112" s="85"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="56" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
-      <c r="B113" s="86"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="95"/>
       <c r="C113" s="55" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A29"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="A53:A74"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="A75:A86"/>
@@ -5693,6 +6706,27 @@
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A53:A74"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5720,21 +6754,21 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="I2" s="97" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="I2" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -5918,17 +6952,17 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -6036,16 +7070,16 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
@@ -6167,16 +7201,16 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
@@ -6277,19 +7311,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -6382,17 +7416,17 @@
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
@@ -6475,17 +7509,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -6591,17 +7625,17 @@
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -6678,16 +7712,16 @@
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -6743,16 +7777,16 @@
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
@@ -6852,17 +7886,17 @@
     </row>
     <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
@@ -7022,18 +8056,18 @@
     </row>
     <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="102"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="109"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -7129,18 +8163,18 @@
     </row>
     <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="102"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="109"/>
     </row>
     <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -7237,19 +8271,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -7493,15 +8527,15 @@
       <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -7699,15 +8733,15 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
@@ -7776,13 +8810,13 @@
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="111"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
     </row>
     <row r="33" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -7880,13 +8914,13 @@
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="111"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
@@ -7924,12 +8958,12 @@
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
@@ -8003,16 +9037,16 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="109" t="s">
+      <c r="B54" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="118"/>
     </row>
     <row r="55" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
@@ -8122,14 +9156,14 @@
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="108"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
     </row>
     <row r="63" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
@@ -8285,19 +9319,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="2:12" s="57" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -8505,18 +9539,18 @@
     <row r="13" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="46" t="s">
@@ -8702,16 +9736,16 @@
     </row>
     <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
@@ -8807,17 +9841,17 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
@@ -8950,17 +9984,17 @@
     </row>
     <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="121"/>
     </row>
     <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="46" t="s">
@@ -9070,19 +10104,19 @@
     </row>
     <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="114"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
     </row>
     <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="46" t="s">
@@ -9293,19 +10327,19 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
@@ -9511,16 +10545,16 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -9634,18 +10668,18 @@
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="117"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
     </row>
     <row r="25" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
@@ -9861,14 +10895,14 @@
     </row>
     <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="117"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
     </row>
     <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
@@ -9952,14 +10986,14 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
@@ -10021,17 +11055,17 @@
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
@@ -10152,18 +11186,18 @@
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="117"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
@@ -10303,17 +11337,17 @@
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
     </row>
     <row r="28" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
@@ -10402,16 +11436,16 @@
     </row>
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="117"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="124"/>
     </row>
     <row r="33" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -10584,19 +11618,19 @@
   <sheetData>
     <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
@@ -10798,17 +11832,17 @@
     </row>
     <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="115" t="s">
+      <c r="N15" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="117"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="124"/>
     </row>
     <row r="16" spans="2:22" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N16" s="38" t="s">
@@ -10840,19 +11874,19 @@
       </c>
     </row>
     <row r="17" spans="2:22" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
       <c r="N17" s="41" t="s">
         <v>212</v>
       </c>
